--- a/concept/public/data/IN-MP.xlsx
+++ b/concept/public/data/IN-MP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,155 +461,127 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ROUND-1</t>
+          <t>RANK (R1)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 6</t>
+          <t>SCORE (R1)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>ROUND-2</t>
+          <t>RANK (R2)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 8</t>
+          <t>SCORE (R2)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ROUND-3</t>
+          <t>RANK (R3)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 10</t>
+          <t>SCORE (R3)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Stary</t>
+          <t>RANK (Stray)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 12</t>
+          <t>SCORE (Stray)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Special Stray 1</t>
+          <t>RANK (Special Stray)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 14</t>
+          <t>SCORE (Special Stray)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Special Stray 2</t>
+          <t>RANK (Special Stray 2)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 16</t>
+          <t>SCORE (Special Stray 2)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Special Stray 3</t>
+          <t>RANK (Special Stray 3)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 18</t>
+          <t>SCORE (Special Stray 3)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bhopal, Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ram Krishna Medical college, Bhopal</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>UR</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>867275</v>
+      </c>
+      <c r="F2" t="n">
+        <v>127537</v>
+      </c>
+      <c r="G2" t="n">
+        <v>558</v>
+      </c>
+      <c r="H2" t="n">
+        <v>98697</v>
+      </c>
+      <c r="I2" t="n">
+        <v>581</v>
+      </c>
+      <c r="J2" t="n">
+        <v>122749</v>
+      </c>
+      <c r="K2" t="n">
+        <v>562</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -623,29 +595,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>UR</t>
+          <t>OBC</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>867275</v>
       </c>
       <c r="F3" t="n">
-        <v>127537</v>
+        <v>130688</v>
       </c>
       <c r="G3" t="n">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H3" t="n">
-        <v>98697</v>
+        <v>125473</v>
       </c>
       <c r="I3" t="n">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="J3" t="n">
-        <v>122749</v>
+        <v>134284</v>
       </c>
       <c r="K3" t="n">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -658,7 +630,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -672,29 +644,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>OBC</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>867275</v>
       </c>
       <c r="F4" t="n">
-        <v>130688</v>
+        <v>328448</v>
       </c>
       <c r="G4" t="n">
-        <v>555</v>
+        <v>424</v>
       </c>
       <c r="H4" t="n">
-        <v>125473</v>
+        <v>295203</v>
       </c>
       <c r="I4" t="n">
-        <v>560</v>
+        <v>443</v>
       </c>
       <c r="J4" t="n">
-        <v>134284</v>
+        <v>333354</v>
       </c>
       <c r="K4" t="n">
-        <v>552</v>
+        <v>421</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -707,7 +679,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -721,29 +693,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>867275</v>
       </c>
       <c r="F5" t="n">
-        <v>328448</v>
+        <v>613246</v>
       </c>
       <c r="G5" t="n">
-        <v>424</v>
+        <v>300</v>
       </c>
       <c r="H5" t="n">
-        <v>295203</v>
+        <v>531366</v>
       </c>
       <c r="I5" t="n">
-        <v>443</v>
+        <v>330</v>
       </c>
       <c r="J5" t="n">
-        <v>333354</v>
+        <v>667726</v>
       </c>
       <c r="K5" t="n">
-        <v>421</v>
+        <v>281</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -756,43 +728,43 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bhopal, Madhya Pradesh</t>
+          <t>Ujjain, Madhya Pradesh</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ram Krishna Medical college, Bhopal</t>
+          <t>RD Gardi, Ujjain</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>UR</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>867275</v>
+        <v>881181</v>
       </c>
       <c r="F6" t="n">
-        <v>613246</v>
+        <v>64372</v>
       </c>
       <c r="G6" t="n">
-        <v>300</v>
+        <v>611</v>
       </c>
       <c r="H6" t="n">
-        <v>531366</v>
+        <v>58138</v>
       </c>
       <c r="I6" t="n">
-        <v>330</v>
+        <v>617</v>
       </c>
       <c r="J6" t="n">
-        <v>667726</v>
+        <v>66071</v>
       </c>
       <c r="K6" t="n">
-        <v>281</v>
+        <v>610</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -805,7 +777,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -819,29 +791,33 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>UR</t>
+          <t>OBC</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>881181</v>
       </c>
       <c r="F7" t="n">
-        <v>64372</v>
+        <v>71604</v>
       </c>
       <c r="G7" t="n">
-        <v>611</v>
-      </c>
-      <c r="H7" t="n">
-        <v>58138</v>
-      </c>
-      <c r="I7" t="n">
-        <v>617</v>
+        <v>605</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J7" t="n">
-        <v>66071</v>
+        <v>73623</v>
       </c>
       <c r="K7" t="n">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -854,7 +830,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -868,33 +844,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>OBC</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>881181</v>
       </c>
       <c r="F8" t="n">
-        <v>71604</v>
+        <v>218031</v>
       </c>
       <c r="G8" t="n">
-        <v>605</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>491</v>
+      </c>
+      <c r="H8" t="n">
+        <v>179483</v>
+      </c>
+      <c r="I8" t="n">
+        <v>518</v>
       </c>
       <c r="J8" t="n">
-        <v>73623</v>
+        <v>217647</v>
       </c>
       <c r="K8" t="n">
-        <v>603</v>
+        <v>491</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -907,7 +879,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -921,29 +893,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>881181</v>
       </c>
       <c r="F9" t="n">
-        <v>218031</v>
+        <v>436126</v>
       </c>
       <c r="G9" t="n">
-        <v>491</v>
+        <v>370</v>
       </c>
       <c r="H9" t="n">
-        <v>179483</v>
+        <v>397871</v>
       </c>
       <c r="I9" t="n">
-        <v>518</v>
+        <v>388</v>
       </c>
       <c r="J9" t="n">
-        <v>217647</v>
+        <v>508549</v>
       </c>
       <c r="K9" t="n">
-        <v>491</v>
+        <v>339</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -956,43 +928,43 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ujjain, Madhya Pradesh</t>
+          <t>Bhopal, Madhya Pradesh</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RD Gardi, Ujjain</t>
+          <t>Mahaveer Institute of MS,Bhopal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>OBC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>881181</v>
+        <v>963635</v>
       </c>
       <c r="F10" t="n">
-        <v>436126</v>
+        <v>124401</v>
       </c>
       <c r="G10" t="n">
-        <v>370</v>
+        <v>560</v>
       </c>
       <c r="H10" t="n">
-        <v>397871</v>
+        <v>95641</v>
       </c>
       <c r="I10" t="n">
-        <v>388</v>
+        <v>584</v>
       </c>
       <c r="J10" t="n">
-        <v>508549</v>
+        <v>107328</v>
       </c>
       <c r="K10" t="n">
-        <v>339</v>
+        <v>574</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -1005,7 +977,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1019,29 +991,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>OBC</t>
+          <t>UR</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>963635</v>
       </c>
       <c r="F11" t="n">
-        <v>124401</v>
+        <v>115898</v>
       </c>
       <c r="G11" t="n">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="H11" t="n">
-        <v>95641</v>
+        <v>83445</v>
       </c>
       <c r="I11" t="n">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="J11" t="n">
-        <v>107328</v>
+        <v>101871</v>
       </c>
       <c r="K11" t="n">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1054,7 +1026,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1068,29 +1040,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>UR</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>963635</v>
       </c>
       <c r="F12" t="n">
-        <v>115898</v>
+        <v>314680</v>
       </c>
       <c r="G12" t="n">
-        <v>567</v>
+        <v>431</v>
       </c>
       <c r="H12" t="n">
-        <v>83445</v>
+        <v>245184</v>
       </c>
       <c r="I12" t="n">
-        <v>595</v>
+        <v>473</v>
       </c>
       <c r="J12" t="n">
-        <v>101871</v>
+        <v>301878</v>
       </c>
       <c r="K12" t="n">
-        <v>579</v>
+        <v>439</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1103,7 +1075,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1117,29 +1089,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>963635</v>
       </c>
       <c r="F13" t="n">
-        <v>314680</v>
+        <v>584105</v>
       </c>
       <c r="G13" t="n">
-        <v>431</v>
+        <v>310</v>
       </c>
       <c r="H13" t="n">
-        <v>245184</v>
+        <v>521375</v>
       </c>
       <c r="I13" t="n">
-        <v>473</v>
+        <v>334</v>
       </c>
       <c r="J13" t="n">
-        <v>301878</v>
+        <v>623137</v>
       </c>
       <c r="K13" t="n">
-        <v>439</v>
+        <v>296</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -1152,43 +1124,43 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bhopal, Madhya Pradesh</t>
+          <t>Jabalpur, Madhya Pradesh</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mahaveer Institute of MS,Bhopal</t>
+          <t>Sukh Sagar Medical college, Jabalpur</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>UR</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>963635</v>
+        <v>1134000</v>
       </c>
       <c r="F14" t="n">
-        <v>584105</v>
+        <v>127799</v>
       </c>
       <c r="G14" t="n">
-        <v>310</v>
+        <v>558</v>
       </c>
       <c r="H14" t="n">
-        <v>521375</v>
+        <v>129268</v>
       </c>
       <c r="I14" t="n">
-        <v>334</v>
+        <v>556</v>
       </c>
       <c r="J14" t="n">
-        <v>623137</v>
+        <v>133990</v>
       </c>
       <c r="K14" t="n">
-        <v>296</v>
+        <v>553</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1201,7 +1173,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1215,29 +1187,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>UR</t>
+          <t>OBC</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>1134000</v>
       </c>
       <c r="F15" t="n">
-        <v>127799</v>
+        <v>131187</v>
       </c>
       <c r="G15" t="n">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H15" t="n">
-        <v>129268</v>
+        <v>131665</v>
       </c>
       <c r="I15" t="n">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J15" t="n">
-        <v>133990</v>
+        <v>134899</v>
       </c>
       <c r="K15" t="n">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1250,7 +1222,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1264,29 +1236,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>OBC</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>1134000</v>
       </c>
       <c r="F16" t="n">
-        <v>131187</v>
+        <v>326046</v>
       </c>
       <c r="G16" t="n">
-        <v>555</v>
+        <v>425</v>
       </c>
       <c r="H16" t="n">
-        <v>131665</v>
+        <v>331949</v>
       </c>
       <c r="I16" t="n">
-        <v>555</v>
+        <v>422</v>
       </c>
       <c r="J16" t="n">
-        <v>134899</v>
+        <v>335535</v>
       </c>
       <c r="K16" t="n">
-        <v>552</v>
+        <v>420</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1299,7 +1271,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1313,29 +1285,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>1134000</v>
       </c>
       <c r="F17" t="n">
-        <v>326046</v>
+        <v>618345</v>
       </c>
       <c r="G17" t="n">
-        <v>425</v>
+        <v>298</v>
       </c>
       <c r="H17" t="n">
-        <v>331949</v>
+        <v>540831</v>
       </c>
       <c r="I17" t="n">
-        <v>422</v>
+        <v>326</v>
       </c>
       <c r="J17" t="n">
-        <v>335535</v>
+        <v>732141</v>
       </c>
       <c r="K17" t="n">
-        <v>420</v>
+        <v>261</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1348,43 +1320,43 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jabalpur, Madhya Pradesh</t>
+          <t>Sehore, Madhya Pradesh</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sukh Sagar Medical college, Jabalpur</t>
+          <t>School of Medical Science, Satya Sai Sehore</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>UR</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1134000</v>
-      </c>
-      <c r="F18" t="n">
-        <v>618345</v>
-      </c>
-      <c r="G18" t="n">
-        <v>298</v>
-      </c>
+        <v>1292000</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>540831</v>
+        <v>131048</v>
       </c>
       <c r="I18" t="n">
-        <v>326</v>
+        <v>555</v>
       </c>
       <c r="J18" t="n">
-        <v>732141</v>
+        <v>137053</v>
       </c>
       <c r="K18" t="n">
-        <v>261</v>
+        <v>550</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1397,7 +1369,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1411,7 +1383,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>UR</t>
+          <t>OBC</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1424,13 +1396,13 @@
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>131048</v>
+        <v>132430</v>
       </c>
       <c r="I19" t="n">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J19" t="n">
-        <v>137053</v>
+        <v>138166</v>
       </c>
       <c r="K19" t="n">
         <v>550</v>
@@ -1446,7 +1418,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1460,7 +1432,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>OBC</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1473,16 +1445,16 @@
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>132430</v>
+        <v>333281</v>
       </c>
       <c r="I20" t="n">
-        <v>554</v>
+        <v>421</v>
       </c>
       <c r="J20" t="n">
-        <v>138166</v>
+        <v>349333</v>
       </c>
       <c r="K20" t="n">
-        <v>550</v>
+        <v>413</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1495,7 +1467,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1509,7 +1481,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1522,16 +1494,16 @@
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>333281</v>
+        <v>559740</v>
       </c>
       <c r="I21" t="n">
-        <v>421</v>
+        <v>319</v>
       </c>
       <c r="J21" t="n">
-        <v>349333</v>
+        <v>777076</v>
       </c>
       <c r="K21" t="n">
-        <v>413</v>
+        <v>248</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
@@ -1544,43 +1516,43 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sehore, Madhya Pradesh</t>
+          <t>Bhopal, Madhya Pradesh</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>School of Medical Science, Satya Sai Sehore</t>
+          <t>Chirayu Medical college, Bhopal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>OBC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1292000</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>1294890</v>
+      </c>
+      <c r="F22" t="n">
+        <v>79479</v>
+      </c>
+      <c r="G22" t="n">
+        <v>598</v>
+      </c>
       <c r="H22" t="n">
-        <v>559740</v>
+        <v>65859</v>
       </c>
       <c r="I22" t="n">
-        <v>319</v>
+        <v>610</v>
       </c>
       <c r="J22" t="n">
-        <v>777076</v>
+        <v>85061</v>
       </c>
       <c r="K22" t="n">
-        <v>248</v>
+        <v>593</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
@@ -1593,7 +1565,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1607,29 +1579,29 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>OBC</t>
+          <t>UR</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>1294890</v>
       </c>
       <c r="F23" t="n">
-        <v>79479</v>
+        <v>75355</v>
       </c>
       <c r="G23" t="n">
+        <v>602</v>
+      </c>
+      <c r="H23" t="n">
+        <v>64462</v>
+      </c>
+      <c r="I23" t="n">
+        <v>611</v>
+      </c>
+      <c r="J23" t="n">
+        <v>79210</v>
+      </c>
+      <c r="K23" t="n">
         <v>598</v>
-      </c>
-      <c r="H23" t="n">
-        <v>65859</v>
-      </c>
-      <c r="I23" t="n">
-        <v>610</v>
-      </c>
-      <c r="J23" t="n">
-        <v>85061</v>
-      </c>
-      <c r="K23" t="n">
-        <v>593</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -1642,7 +1614,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1656,29 +1628,29 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>UR</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>1294890</v>
       </c>
       <c r="F24" t="n">
-        <v>75355</v>
+        <v>242128</v>
       </c>
       <c r="G24" t="n">
-        <v>602</v>
+        <v>475</v>
       </c>
       <c r="H24" t="n">
-        <v>64462</v>
+        <v>207076</v>
       </c>
       <c r="I24" t="n">
-        <v>611</v>
+        <v>499</v>
       </c>
       <c r="J24" t="n">
-        <v>79210</v>
+        <v>253620</v>
       </c>
       <c r="K24" t="n">
-        <v>598</v>
+        <v>468</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -1691,7 +1663,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1705,29 +1677,29 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>1294890</v>
       </c>
       <c r="F25" t="n">
-        <v>242128</v>
+        <v>477132</v>
       </c>
       <c r="G25" t="n">
-        <v>475</v>
+        <v>352</v>
       </c>
       <c r="H25" t="n">
-        <v>207076</v>
+        <v>416149</v>
       </c>
       <c r="I25" t="n">
-        <v>499</v>
+        <v>380</v>
       </c>
       <c r="J25" t="n">
-        <v>253620</v>
+        <v>523659</v>
       </c>
       <c r="K25" t="n">
-        <v>468</v>
+        <v>333</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -1740,43 +1712,43 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bhopal, Madhya Pradesh</t>
+          <t>Dewas, Madhya Pradesh</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Chirayu Medical college, Bhopal</t>
+          <t>Amaltas IMS, Dewas</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>UR</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1294890</v>
+        <v>1317500</v>
       </c>
       <c r="F26" t="n">
-        <v>477132</v>
+        <v>118474</v>
       </c>
       <c r="G26" t="n">
-        <v>352</v>
+        <v>565</v>
       </c>
       <c r="H26" t="n">
-        <v>416149</v>
+        <v>110156</v>
       </c>
       <c r="I26" t="n">
-        <v>380</v>
+        <v>572</v>
       </c>
       <c r="J26" t="n">
-        <v>523659</v>
+        <v>125409</v>
       </c>
       <c r="K26" t="n">
-        <v>333</v>
+        <v>560</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -1789,7 +1761,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1803,29 +1775,29 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>UR</t>
+          <t>OBC</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>1317500</v>
       </c>
       <c r="F27" t="n">
-        <v>118474</v>
+        <v>122233</v>
       </c>
       <c r="G27" t="n">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H27" t="n">
-        <v>110156</v>
+        <v>116245</v>
       </c>
       <c r="I27" t="n">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="J27" t="n">
-        <v>125409</v>
+        <v>130121</v>
       </c>
       <c r="K27" t="n">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -1838,7 +1810,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1852,29 +1824,29 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>OBC</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>1317500</v>
       </c>
       <c r="F28" t="n">
-        <v>122233</v>
+        <v>315802</v>
       </c>
       <c r="G28" t="n">
-        <v>562</v>
+        <v>431</v>
       </c>
       <c r="H28" t="n">
-        <v>116245</v>
+        <v>278637</v>
       </c>
       <c r="I28" t="n">
-        <v>567</v>
+        <v>452</v>
       </c>
       <c r="J28" t="n">
-        <v>130121</v>
+        <v>319859</v>
       </c>
       <c r="K28" t="n">
-        <v>556</v>
+        <v>429</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
@@ -1887,7 +1859,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1901,29 +1873,29 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>1317500</v>
       </c>
       <c r="F29" t="n">
-        <v>315802</v>
+        <v>591743</v>
       </c>
       <c r="G29" t="n">
-        <v>431</v>
+        <v>307</v>
       </c>
       <c r="H29" t="n">
-        <v>278637</v>
+        <v>458134</v>
       </c>
       <c r="I29" t="n">
-        <v>452</v>
+        <v>360</v>
       </c>
       <c r="J29" t="n">
-        <v>319859</v>
+        <v>645053</v>
       </c>
       <c r="K29" t="n">
-        <v>429</v>
+        <v>289</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -1936,43 +1908,43 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dewas, Madhya Pradesh</t>
+          <t>Indore, Madhya Pradesh</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Amaltas IMS, Dewas</t>
+          <t>LNCT Medical college, Indore</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>UR</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1317500</v>
+        <v>1321070</v>
       </c>
       <c r="F30" t="n">
-        <v>591743</v>
+        <v>111775</v>
       </c>
       <c r="G30" t="n">
-        <v>307</v>
+        <v>570</v>
       </c>
       <c r="H30" t="n">
-        <v>458134</v>
+        <v>106008</v>
       </c>
       <c r="I30" t="n">
-        <v>360</v>
+        <v>575</v>
       </c>
       <c r="J30" t="n">
-        <v>645053</v>
+        <v>112691</v>
       </c>
       <c r="K30" t="n">
-        <v>289</v>
+        <v>570</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -1985,7 +1957,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1999,29 +1971,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>UR</t>
+          <t>OBC</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>1321070</v>
       </c>
       <c r="F31" t="n">
-        <v>111775</v>
+        <v>115791</v>
       </c>
       <c r="G31" t="n">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H31" t="n">
-        <v>106008</v>
+        <v>109275</v>
       </c>
       <c r="I31" t="n">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J31" t="n">
-        <v>112691</v>
+        <v>119639</v>
       </c>
       <c r="K31" t="n">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -2034,7 +2006,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2048,29 +2020,29 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>OBC</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>1321070</v>
       </c>
       <c r="F32" t="n">
-        <v>115791</v>
+        <v>300641</v>
       </c>
       <c r="G32" t="n">
-        <v>567</v>
+        <v>439</v>
       </c>
       <c r="H32" t="n">
-        <v>109275</v>
+        <v>270246</v>
       </c>
       <c r="I32" t="n">
-        <v>573</v>
+        <v>458</v>
       </c>
       <c r="J32" t="n">
-        <v>119639</v>
+        <v>305777</v>
       </c>
       <c r="K32" t="n">
-        <v>564</v>
+        <v>436</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -2083,7 +2055,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2097,29 +2069,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>1321070</v>
       </c>
       <c r="F33" t="n">
-        <v>300641</v>
+        <v>565518</v>
       </c>
       <c r="G33" t="n">
-        <v>439</v>
+        <v>317</v>
       </c>
       <c r="H33" t="n">
-        <v>270246</v>
+        <v>513964</v>
       </c>
       <c r="I33" t="n">
-        <v>458</v>
+        <v>337</v>
       </c>
       <c r="J33" t="n">
-        <v>305777</v>
+        <v>653886</v>
       </c>
       <c r="K33" t="n">
-        <v>436</v>
+        <v>286</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -2132,43 +2104,43 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Indore, Madhya Pradesh</t>
+          <t>Jatkhedi, Madhya Pradesh</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LNCT Medical college, Indore</t>
+          <t>RKDF Medical college, Jatkhedi</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>UR</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1321070</v>
+        <v>1326000</v>
       </c>
       <c r="F34" t="n">
-        <v>565518</v>
+        <v>125159</v>
       </c>
       <c r="G34" t="n">
-        <v>317</v>
+        <v>560</v>
       </c>
       <c r="H34" t="n">
-        <v>513964</v>
+        <v>120166</v>
       </c>
       <c r="I34" t="n">
-        <v>337</v>
+        <v>564</v>
       </c>
       <c r="J34" t="n">
-        <v>653886</v>
+        <v>132063</v>
       </c>
       <c r="K34" t="n">
-        <v>286</v>
+        <v>554</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
@@ -2181,7 +2153,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2195,29 +2167,29 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>UR</t>
+          <t>OBC</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>1326000</v>
       </c>
       <c r="F35" t="n">
-        <v>125159</v>
+        <v>128847</v>
       </c>
       <c r="G35" t="n">
+        <v>557</v>
+      </c>
+      <c r="H35" t="n">
+        <v>125048</v>
+      </c>
+      <c r="I35" t="n">
         <v>560</v>
       </c>
-      <c r="H35" t="n">
-        <v>120166</v>
-      </c>
-      <c r="I35" t="n">
-        <v>564</v>
-      </c>
       <c r="J35" t="n">
-        <v>132063</v>
+        <v>133920</v>
       </c>
       <c r="K35" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -2230,7 +2202,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2244,29 +2216,29 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>OBC</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>1326000</v>
       </c>
       <c r="F36" t="n">
-        <v>128847</v>
+        <v>318451</v>
       </c>
       <c r="G36" t="n">
-        <v>557</v>
+        <v>429</v>
       </c>
       <c r="H36" t="n">
-        <v>125048</v>
+        <v>329812</v>
       </c>
       <c r="I36" t="n">
-        <v>560</v>
+        <v>423</v>
       </c>
       <c r="J36" t="n">
-        <v>133920</v>
+        <v>339993</v>
       </c>
       <c r="K36" t="n">
-        <v>553</v>
+        <v>418</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -2279,7 +2251,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2293,29 +2265,29 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="E37" t="n">
         <v>1326000</v>
       </c>
       <c r="F37" t="n">
-        <v>318451</v>
+        <v>600757</v>
       </c>
       <c r="G37" t="n">
-        <v>429</v>
+        <v>304</v>
       </c>
       <c r="H37" t="n">
-        <v>329812</v>
+        <v>497141</v>
       </c>
       <c r="I37" t="n">
-        <v>423</v>
+        <v>344</v>
       </c>
       <c r="J37" t="n">
-        <v>339993</v>
+        <v>727403</v>
       </c>
       <c r="K37" t="n">
-        <v>418</v>
+        <v>263</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -2328,43 +2300,43 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Jatkhedi, Madhya Pradesh</t>
+          <t>Indore, Madhya Pradesh</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RKDF Medical college, Jatkhedi</t>
+          <t>Index Medical college, Indore</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>UR</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1326000</v>
+        <v>1377000</v>
       </c>
       <c r="F38" t="n">
-        <v>600757</v>
+        <v>107552</v>
       </c>
       <c r="G38" t="n">
-        <v>304</v>
+        <v>574</v>
       </c>
       <c r="H38" t="n">
-        <v>497141</v>
+        <v>89767</v>
       </c>
       <c r="I38" t="n">
-        <v>344</v>
+        <v>589</v>
       </c>
       <c r="J38" t="n">
-        <v>727403</v>
+        <v>113870</v>
       </c>
       <c r="K38" t="n">
-        <v>263</v>
+        <v>569</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -2377,7 +2349,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2391,29 +2363,29 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>UR</t>
+          <t>OBC</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>1377000</v>
       </c>
       <c r="F39" t="n">
-        <v>107552</v>
+        <v>113081</v>
       </c>
       <c r="G39" t="n">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="H39" t="n">
-        <v>89767</v>
+        <v>103220</v>
       </c>
       <c r="I39" t="n">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="J39" t="n">
-        <v>113870</v>
+        <v>122733</v>
       </c>
       <c r="K39" t="n">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -2426,7 +2398,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2440,29 +2412,29 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>OBC</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v>1377000</v>
       </c>
       <c r="F40" t="n">
-        <v>113081</v>
+        <v>293904</v>
       </c>
       <c r="G40" t="n">
-        <v>570</v>
+        <v>443</v>
       </c>
       <c r="H40" t="n">
-        <v>103220</v>
+        <v>296529</v>
       </c>
       <c r="I40" t="n">
-        <v>578</v>
+        <v>442</v>
       </c>
       <c r="J40" t="n">
-        <v>122733</v>
+        <v>329937</v>
       </c>
       <c r="K40" t="n">
-        <v>562</v>
+        <v>423</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -2475,7 +2447,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2489,29 +2461,29 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v>1377000</v>
       </c>
       <c r="F41" t="n">
-        <v>293904</v>
+        <v>553969</v>
       </c>
       <c r="G41" t="n">
-        <v>443</v>
+        <v>321</v>
       </c>
       <c r="H41" t="n">
-        <v>296529</v>
+        <v>501224</v>
       </c>
       <c r="I41" t="n">
-        <v>442</v>
+        <v>342</v>
       </c>
       <c r="J41" t="n">
-        <v>329937</v>
+        <v>629407</v>
       </c>
       <c r="K41" t="n">
-        <v>423</v>
+        <v>294</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -2524,7 +2496,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2533,34 +2505,34 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Index Medical college, Indore</t>
+          <t>Sri Aurobindo Medical College and Post Graduate Institute , Indore</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>UR</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1377000</v>
+        <v>1381845</v>
       </c>
       <c r="F42" t="n">
-        <v>553969</v>
+        <v>63799</v>
       </c>
       <c r="G42" t="n">
-        <v>321</v>
+        <v>612</v>
       </c>
       <c r="H42" t="n">
-        <v>501224</v>
+        <v>61821</v>
       </c>
       <c r="I42" t="n">
-        <v>342</v>
+        <v>614</v>
       </c>
       <c r="J42" t="n">
-        <v>629407</v>
+        <v>71873</v>
       </c>
       <c r="K42" t="n">
-        <v>294</v>
+        <v>605</v>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -2573,7 +2545,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2587,26 +2559,26 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>UR</t>
+          <t>OBC</t>
         </is>
       </c>
       <c r="E43" t="n">
         <v>1381845</v>
       </c>
       <c r="F43" t="n">
-        <v>63799</v>
+        <v>70801</v>
       </c>
       <c r="G43" t="n">
+        <v>606</v>
+      </c>
+      <c r="H43" t="n">
+        <v>63695</v>
+      </c>
+      <c r="I43" t="n">
         <v>612</v>
       </c>
-      <c r="H43" t="n">
-        <v>61821</v>
-      </c>
-      <c r="I43" t="n">
-        <v>614</v>
-      </c>
       <c r="J43" t="n">
-        <v>71873</v>
+        <v>72131</v>
       </c>
       <c r="K43" t="n">
         <v>605</v>
@@ -2622,7 +2594,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2636,29 +2608,29 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>OBC</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="E44" t="n">
         <v>1381845</v>
       </c>
       <c r="F44" t="n">
-        <v>70801</v>
+        <v>218155</v>
       </c>
       <c r="G44" t="n">
-        <v>606</v>
+        <v>491</v>
       </c>
       <c r="H44" t="n">
-        <v>63695</v>
+        <v>201775</v>
       </c>
       <c r="I44" t="n">
-        <v>612</v>
+        <v>502</v>
       </c>
       <c r="J44" t="n">
-        <v>72131</v>
+        <v>248737</v>
       </c>
       <c r="K44" t="n">
-        <v>605</v>
+        <v>471</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -2671,7 +2643,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2685,29 +2657,29 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v>1381845</v>
       </c>
       <c r="F45" t="n">
-        <v>218155</v>
+        <v>447488</v>
       </c>
       <c r="G45" t="n">
-        <v>491</v>
+        <v>365</v>
       </c>
       <c r="H45" t="n">
-        <v>201775</v>
+        <v>420700</v>
       </c>
       <c r="I45" t="n">
-        <v>502</v>
+        <v>377</v>
       </c>
       <c r="J45" t="n">
-        <v>248737</v>
+        <v>463449</v>
       </c>
       <c r="K45" t="n">
-        <v>471</v>
+        <v>358</v>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
@@ -2720,43 +2692,43 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Indore, Madhya Pradesh</t>
+          <t>Bhopal, Madhya Pradesh</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Sri Aurobindo Medical College and Post Graduate Institute , Indore</t>
+          <t>Peoples College, Bhopal</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>UR</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1381845</v>
+        <v>1389750</v>
       </c>
       <c r="F46" t="n">
-        <v>447488</v>
+        <v>86600</v>
       </c>
       <c r="G46" t="n">
-        <v>365</v>
+        <v>592</v>
       </c>
       <c r="H46" t="n">
-        <v>420700</v>
+        <v>67083</v>
       </c>
       <c r="I46" t="n">
-        <v>377</v>
+        <v>609</v>
       </c>
       <c r="J46" t="n">
-        <v>463449</v>
+        <v>86340</v>
       </c>
       <c r="K46" t="n">
-        <v>358</v>
+        <v>592</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
@@ -2769,7 +2741,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2783,26 +2755,26 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>UR</t>
+          <t>OBC</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>1389750</v>
       </c>
       <c r="F47" t="n">
-        <v>86600</v>
+        <v>90083</v>
       </c>
       <c r="G47" t="n">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H47" t="n">
-        <v>67083</v>
+        <v>67620</v>
       </c>
       <c r="I47" t="n">
         <v>609</v>
       </c>
       <c r="J47" t="n">
-        <v>86340</v>
+        <v>86496</v>
       </c>
       <c r="K47" t="n">
         <v>592</v>
@@ -2818,7 +2790,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2832,29 +2804,29 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>OBC</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v>1389750</v>
       </c>
       <c r="F48" t="n">
-        <v>90083</v>
+        <v>262440</v>
       </c>
       <c r="G48" t="n">
-        <v>589</v>
+        <v>462</v>
       </c>
       <c r="H48" t="n">
-        <v>67620</v>
+        <v>218226</v>
       </c>
       <c r="I48" t="n">
-        <v>609</v>
+        <v>491</v>
       </c>
       <c r="J48" t="n">
-        <v>86496</v>
+        <v>272679</v>
       </c>
       <c r="K48" t="n">
-        <v>592</v>
+        <v>456</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -2867,7 +2839,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2881,29 +2853,29 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="E49" t="n">
         <v>1389750</v>
       </c>
       <c r="F49" t="n">
-        <v>262440</v>
+        <v>505766</v>
       </c>
       <c r="G49" t="n">
-        <v>462</v>
+        <v>340</v>
       </c>
       <c r="H49" t="n">
-        <v>218226</v>
+        <v>431461</v>
       </c>
       <c r="I49" t="n">
-        <v>491</v>
+        <v>372</v>
       </c>
       <c r="J49" t="n">
-        <v>272679</v>
+        <v>601430</v>
       </c>
       <c r="K49" t="n">
-        <v>456</v>
+        <v>304</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -2916,7 +2888,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2925,34 +2897,34 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Peoples College, Bhopal</t>
+          <t>LNMC &amp; RC, Bhopal</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>UR</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1389750</v>
+        <v>1409300</v>
       </c>
       <c r="F50" t="n">
-        <v>505766</v>
+        <v>97009</v>
       </c>
       <c r="G50" t="n">
-        <v>340</v>
+        <v>583</v>
       </c>
       <c r="H50" t="n">
-        <v>431461</v>
+        <v>97009</v>
       </c>
       <c r="I50" t="n">
-        <v>372</v>
+        <v>583</v>
       </c>
       <c r="J50" t="n">
-        <v>601430</v>
+        <v>90929</v>
       </c>
       <c r="K50" t="n">
-        <v>304</v>
+        <v>588</v>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
@@ -2965,7 +2937,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2979,29 +2951,29 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>UR</t>
+          <t>OBC</t>
         </is>
       </c>
       <c r="E51" t="n">
         <v>1409300</v>
       </c>
       <c r="F51" t="n">
-        <v>97009</v>
+        <v>101980</v>
       </c>
       <c r="G51" t="n">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H51" t="n">
-        <v>97009</v>
+        <v>84489</v>
       </c>
       <c r="I51" t="n">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="J51" t="n">
-        <v>90929</v>
+        <v>96154</v>
       </c>
       <c r="K51" t="n">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
@@ -3014,7 +2986,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3028,29 +3000,29 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>OBC</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v>1409300</v>
       </c>
       <c r="F52" t="n">
-        <v>101980</v>
+        <v>278587</v>
       </c>
       <c r="G52" t="n">
-        <v>579</v>
+        <v>452</v>
       </c>
       <c r="H52" t="n">
-        <v>84489</v>
+        <v>261615</v>
       </c>
       <c r="I52" t="n">
-        <v>594</v>
+        <v>463</v>
       </c>
       <c r="J52" t="n">
-        <v>96154</v>
+        <v>292985</v>
       </c>
       <c r="K52" t="n">
-        <v>584</v>
+        <v>444</v>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -3063,7 +3035,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3077,29 +3049,29 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="E53" t="n">
         <v>1409300</v>
       </c>
       <c r="F53" t="n">
-        <v>278587</v>
+        <v>543550</v>
       </c>
       <c r="G53" t="n">
-        <v>452</v>
+        <v>325</v>
       </c>
       <c r="H53" t="n">
-        <v>261615</v>
+        <v>467964</v>
       </c>
       <c r="I53" t="n">
-        <v>463</v>
+        <v>356</v>
       </c>
       <c r="J53" t="n">
-        <v>292985</v>
+        <v>649848</v>
       </c>
       <c r="K53" t="n">
-        <v>444</v>
+        <v>287</v>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -3110,55 +3082,6 @@
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Bhopal, Madhya Pradesh</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>LNMC &amp; RC, Bhopal</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>1409300</v>
-      </c>
-      <c r="F54" t="n">
-        <v>543550</v>
-      </c>
-      <c r="G54" t="n">
-        <v>325</v>
-      </c>
-      <c r="H54" t="n">
-        <v>467964</v>
-      </c>
-      <c r="I54" t="n">
-        <v>356</v>
-      </c>
-      <c r="J54" t="n">
-        <v>649848</v>
-      </c>
-      <c r="K54" t="n">
-        <v>287</v>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
